--- a/src/Benchmarks_2.xlsx
+++ b/src/Benchmarks_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelu.angelu-PC\Graph-Coloring-Problem\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelu.angelu-PC\Desktop\tanggg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3F792-7FB2-4EE4-9E5B-31DD4A2C040D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C804B5-C9C4-4E02-A3A1-E41B5488BA2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3286,7 +3286,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -3661,64 +3661,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-1.4192681000000002E-2</c:v>
+                  <c:v>-0.10795859999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.7358749999999797E-3</c:v>
+                  <c:v>-0.15253320000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.3985069999997714E-3</c:v>
+                  <c:v>-1.245425E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.2591781999999989E-2</c:v>
+                  <c:v>-1.8148449999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.4218223000000315E-2</c:v>
+                  <c:v>-6.9348350000000031E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.19535181799999995</c:v>
+                  <c:v>-0.19127875000000016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.64612543900000086</c:v>
+                  <c:v>-0.7372924500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7202909760000002</c:v>
+                  <c:v>-1.5960347499999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4089325880000034</c:v>
+                  <c:v>-4.0025864000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.723736473999985</c:v>
+                  <c:v>-9.7705525500000032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-15.598376363000011</c:v>
+                  <c:v>-14.042479800000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-22.821437809000045</c:v>
+                  <c:v>-22.0101841</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-32.835452283999963</c:v>
+                  <c:v>-29.6890319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-45.089356994000056</c:v>
+                  <c:v>-42.143890199999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-60.586487935000093</c:v>
+                  <c:v>-56.574321150000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-82.456710288999972</c:v>
+                  <c:v>-65.615573649999988</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-108.20081615999995</c:v>
+                  <c:v>-98.722027249999982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-140.2822239499998</c:v>
+                  <c:v>-138.79763449999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-168.88192863000017</c:v>
+                  <c:v>-161.24249294999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-211.91315676900007</c:v>
+                  <c:v>-223.87596535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3833,64 +3833,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.3679161999999981E-2</c:v>
+                  <c:v>2.3286600000000046E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.133873999999974E-3</c:v>
+                  <c:v>-0.13415955000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.7353329999998036E-3</c:v>
+                  <c:v>-6.6855499999999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0545516999999992E-2</c:v>
+                  <c:v>-2.540485E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.2189502000000159E-2</c:v>
+                  <c:v>-9.6480850000000035E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.2806704889999998</c:v>
+                  <c:v>-0.27587605000000015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.81596413600000062</c:v>
+                  <c:v>-0.9009432500000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.1054669900000005</c:v>
+                  <c:v>-1.9632537999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.1051430430000027</c:v>
+                  <c:v>-4.62218485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.535399062999986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-19.252648460000014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-27.470259971000036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-38.648165636999956</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-52.215633253000071</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-69.107582574000091</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-92.490408841999951</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-119.76210431099996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-153.70409896599983</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-184.56212556900019</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-230.17908987000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12607,13 +12607,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.296875" customWidth="1" collapsed="1"/>
+    <col min="5" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="16" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -12706,42 +12707,42 @@
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D22" si="0">(2*C3)/(B3*(B3-1))</f>
+        <f>(2*C3)/(B3*(B3-1))</f>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E22" si="1">MIN(G3,I3,K3)</f>
+        <f>MIN(G3,I3,K3)</f>
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F22" si="2">MIN(H3,J3,L3)</f>
-        <v>7.3146440000000064E-3</v>
+        <f>MIN(H3,J3,L3)</f>
+        <v>3.5064799999999993E-2</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
       </c>
       <c r="H3" s="4">
-        <v>3.5186486999999989E-2</v>
+        <v>0.16631000000000001</v>
       </c>
       <c r="I3" s="4">
         <v>2</v>
       </c>
       <c r="J3" s="4">
-        <v>7.3146440000000064E-3</v>
+        <v>3.5064799999999993E-2</v>
       </c>
       <c r="K3" s="4">
         <v>2</v>
       </c>
       <c r="L3" s="4">
-        <v>2.1507325000000008E-2</v>
+        <v>0.14302339999999997</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" ref="M3:M22" si="3">H3-L3</f>
-        <v>1.3679161999999981E-2</v>
+        <f>H3-L3</f>
+        <v>2.3286600000000046E-2</v>
       </c>
       <c r="N3" s="8">
-        <f t="shared" ref="N3:N22" si="4">J3-L3</f>
-        <v>-1.4192681000000002E-2</v>
+        <f>J3-L3</f>
+        <v>-0.10795859999999997</v>
       </c>
       <c r="O3" s="8">
         <f>G3-K3</f>
@@ -12763,49 +12764,49 @@
         <v>32</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C4)/(B4*(B4-1))</f>
         <v>0.16842105263157894</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G4,I4,K4)</f>
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="2"/>
-        <v>3.7300430000000067E-3</v>
+        <f>MIN(H4,J4,L4)</f>
+        <v>7.2112999999999995E-3</v>
       </c>
       <c r="G4" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>8.3320440000000124E-3</v>
+        <v>2.5584950000000002E-2</v>
       </c>
       <c r="I4" s="4">
         <v>4</v>
       </c>
       <c r="J4" s="4">
-        <v>3.7300430000000067E-3</v>
+        <v>7.2112999999999995E-3</v>
       </c>
       <c r="K4" s="4">
         <v>3</v>
       </c>
       <c r="L4" s="4">
-        <v>1.1465917999999986E-2</v>
+        <v>0.15974450000000001</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="3"/>
-        <v>-3.133873999999974E-3</v>
+        <f>H4-L4</f>
+        <v>-0.13415955000000002</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="4"/>
-        <v>-7.7358749999999797E-3</v>
+        <f>J4-L4</f>
+        <v>-0.15253320000000001</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" ref="O4:O22" si="5">G4-K4</f>
-        <v>1</v>
+        <f>G4-K4</f>
+        <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" ref="P4:P22" si="6">I4-K4</f>
+        <f>I4-K4</f>
         <v>1</v>
       </c>
       <c r="R4" s="13" t="s">
@@ -12823,49 +12824,49 @@
         <v>136</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C5)/(B5*(B5-1))</f>
         <v>0.31264367816091954</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G5,I5,K5)</f>
         <v>6</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4763847000000068E-2</v>
+        <f>MIN(H5,J5,L5)</f>
+        <v>1.5744849999999998E-2</v>
       </c>
       <c r="G5" s="4">
         <v>7</v>
       </c>
       <c r="H5" s="4">
-        <v>1.5427021000000036E-2</v>
+        <v>2.1513549999999999E-2</v>
       </c>
       <c r="I5" s="4">
         <v>7</v>
       </c>
       <c r="J5" s="4">
-        <v>1.4763847000000068E-2</v>
+        <v>1.5744849999999998E-2</v>
       </c>
       <c r="K5" s="4">
         <v>6</v>
       </c>
       <c r="L5" s="4">
-        <v>2.2162353999999839E-2</v>
+        <v>2.8199099999999998E-2</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="3"/>
-        <v>-6.7353329999998036E-3</v>
+        <f t="shared" ref="M5:M17" si="0">H5-L5</f>
+        <v>-6.6855499999999984E-3</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" si="4"/>
-        <v>-7.3985069999997714E-3</v>
+        <f>J5-L5</f>
+        <v>-1.245425E-2</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="5"/>
+        <f>G5-K5</f>
         <v>1</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="6"/>
+        <f>I5-K5</f>
         <v>1</v>
       </c>
     </row>
@@ -12880,49 +12881,49 @@
         <v>303</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C6)/(B6*(B6-1))</f>
         <v>0.38846153846153847</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6,I6,K6)</f>
         <v>8</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>3.3679349999999983E-2</v>
+        <f>MIN(H6,J6,L6)</f>
+        <v>4.388355E-2</v>
       </c>
       <c r="G6" s="4">
         <v>9</v>
       </c>
       <c r="H6" s="4">
-        <v>3.3679349999999983E-2</v>
+        <v>4.388355E-2</v>
       </c>
       <c r="I6" s="4">
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <v>4.1633084999999986E-2</v>
+        <v>5.1139950000000003E-2</v>
       </c>
       <c r="K6" s="4">
         <v>8</v>
       </c>
       <c r="L6" s="4">
-        <v>5.4224866999999975E-2</v>
+        <v>6.92884E-2</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="3"/>
-        <v>-2.0545516999999992E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.540485E-2</v>
       </c>
       <c r="N6" s="8">
-        <f t="shared" si="4"/>
-        <v>-1.2591781999999989E-2</v>
+        <f>J6-L6</f>
+        <v>-1.8148449999999997E-2</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="5"/>
+        <f>G6-K6</f>
         <v>1</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" si="6"/>
+        <f>I6-K6</f>
         <v>2</v>
       </c>
     </row>
@@ -12937,49 +12938,49 @@
         <v>640</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C7)/(B7*(B7-1))</f>
         <v>0.52244897959183678</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G7,I7,K7)</f>
         <v>12</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
-        <v>8.0946229000000106E-2</v>
+        <f>MIN(H7,J7,L7)</f>
+        <v>8.4972699999999984E-2</v>
       </c>
       <c r="G7" s="4">
         <v>15</v>
       </c>
       <c r="H7" s="4">
-        <v>8.0946229000000106E-2</v>
+        <v>8.4972699999999984E-2</v>
       </c>
       <c r="I7" s="4">
         <v>15</v>
       </c>
       <c r="J7" s="4">
-        <v>0.11891750799999995</v>
+        <v>0.11210519999999999</v>
       </c>
       <c r="K7" s="4">
         <v>12</v>
       </c>
       <c r="L7" s="4">
-        <v>0.17313573100000026</v>
+        <v>0.18145355000000002</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="3"/>
-        <v>-9.2189502000000159E-2</v>
+        <f t="shared" si="0"/>
+        <v>-9.6480850000000035E-2</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="4"/>
-        <v>-5.4218223000000315E-2</v>
+        <f>J7-L7</f>
+        <v>-6.9348350000000031E-2</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="5"/>
+        <f>G7-K7</f>
         <v>3</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="6"/>
+        <f>I7-K7</f>
         <v>3</v>
       </c>
     </row>
@@ -12994,49 +12995,49 @@
         <v>1092</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C8)/(B8*(B8-1))</f>
         <v>0.61694915254237293</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G8,I8,K8)</f>
         <v>15</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.15623041900000001</v>
+        <f>MIN(H8,J8,L8)</f>
+        <v>0.15717575</v>
       </c>
       <c r="G8" s="4">
         <v>19</v>
       </c>
       <c r="H8" s="4">
-        <v>0.15623041900000001</v>
+        <v>0.15717575</v>
       </c>
       <c r="I8" s="4">
         <v>19</v>
       </c>
       <c r="J8" s="4">
-        <v>0.24154908999999986</v>
+        <v>0.24177304999999999</v>
       </c>
       <c r="K8" s="4">
         <v>15</v>
       </c>
       <c r="L8" s="4">
-        <v>0.43690090799999981</v>
+        <v>0.43305180000000015</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="3"/>
-        <v>-0.2806704889999998</v>
+        <f t="shared" si="0"/>
+        <v>-0.27587605000000015</v>
       </c>
       <c r="N8" s="8">
-        <f t="shared" si="4"/>
-        <v>-0.19535181799999995</v>
+        <f>J8-L8</f>
+        <v>-0.19127875000000016</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="5"/>
+        <f>G8-K8</f>
         <v>4</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="6"/>
+        <f>I8-K8</f>
         <v>4</v>
       </c>
     </row>
@@ -13051,49 +13052,49 @@
         <v>1692</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C9)/(B9*(B9-1))</f>
         <v>0.70062111801242233</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G9,I9,K9)</f>
         <v>20</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.26763552800000012</v>
+        <f>MIN(H9,J9,L9)</f>
+        <v>0.28917205000000001</v>
       </c>
       <c r="G9" s="4">
         <v>22</v>
       </c>
       <c r="H9" s="4">
-        <v>0.26763552800000012</v>
+        <v>0.28917205000000001</v>
       </c>
       <c r="I9" s="4">
         <v>22</v>
       </c>
       <c r="J9" s="4">
-        <v>0.43747422499999988</v>
+        <v>0.45282285000000011</v>
       </c>
       <c r="K9" s="4">
         <v>20</v>
       </c>
       <c r="L9" s="4">
-        <v>1.0835996640000007</v>
+        <v>1.1901153000000002</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="3"/>
-        <v>-0.81596413600000062</v>
+        <f t="shared" si="0"/>
+        <v>-0.9009432500000002</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" si="4"/>
-        <v>-0.64612543900000086</v>
+        <f>J9-L9</f>
+        <v>-0.7372924500000001</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="5"/>
+        <f>G9-K9</f>
         <v>2</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="6"/>
+        <f>I9-K9</f>
         <v>2</v>
       </c>
     </row>
@@ -13108,49 +13109,49 @@
         <v>2536</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C10)/(B10*(B10-1))</f>
         <v>0.8025316455696202</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G10,I10,K10)</f>
         <v>29</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.48520680499999963</v>
+        <f>MIN(H10,J10,L10)</f>
+        <v>0.50358715000000009</v>
       </c>
       <c r="G10" s="4">
         <v>30</v>
       </c>
       <c r="H10" s="4">
-        <v>0.48520680499999963</v>
+        <v>0.50358715000000009</v>
       </c>
       <c r="I10" s="4">
         <v>33</v>
       </c>
       <c r="J10" s="4">
-        <v>0.87038281900000014</v>
+        <v>0.87080619999999997</v>
       </c>
       <c r="K10" s="4">
         <v>29</v>
       </c>
       <c r="L10" s="4">
-        <v>2.5906737950000003</v>
+        <v>2.4668409499999995</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="3"/>
-        <v>-2.1054669900000005</v>
+        <f t="shared" si="0"/>
+        <v>-1.9632537999999995</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="4"/>
-        <v>-1.7202909760000002</v>
+        <f>J10-L10</f>
+        <v>-1.5960347499999994</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="5"/>
+        <f>G10-K10</f>
         <v>1</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" si="6"/>
+        <f>I10-K10</f>
         <v>4</v>
       </c>
     </row>
@@ -13165,49 +13166,49 @@
         <v>3588</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C11)/(B11*(B11-1))</f>
         <v>0.89588014981273412</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G11,I11,K11)</f>
         <v>40</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.83773167399999959</v>
+        <f>MIN(H11,J11,L11)</f>
+        <v>0.83949720000000005</v>
       </c>
       <c r="G11" s="4">
         <v>40</v>
       </c>
       <c r="H11" s="4">
-        <v>0.83773167399999959</v>
+        <v>0.83949720000000005</v>
       </c>
       <c r="I11" s="4">
         <v>41</v>
       </c>
       <c r="J11" s="4">
-        <v>1.5339421289999986</v>
+        <v>1.4590956499999999</v>
       </c>
       <c r="K11" s="4">
         <v>41</v>
       </c>
       <c r="L11" s="4">
-        <v>5.9428747170000022</v>
+        <v>5.4616820500000003</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="3"/>
-        <v>-5.1051430430000027</v>
+        <f t="shared" si="0"/>
+        <v>-4.62218485</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4089325880000034</v>
+        <f>J11-L11</f>
+        <v>-4.0025864000000002</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="5"/>
+        <f>G11-K11</f>
         <v>-1</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" si="6"/>
+        <f>I11-K11</f>
         <v>0</v>
       </c>
     </row>
@@ -13222,49 +13223,49 @@
         <v>4950</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C12)/(B12*(B12-1))</f>
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G12,I12,K12)</f>
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2432064650000023</v>
+        <f>MIN(H12,J12,L12)</f>
+        <v>6.4922929500000013</v>
       </c>
       <c r="G12" s="4">
         <v>100</v>
       </c>
       <c r="H12" s="4">
-        <v>2.2432064650000023</v>
+        <v>16.262845500000005</v>
       </c>
       <c r="I12" s="4">
         <v>100</v>
       </c>
       <c r="J12" s="4">
-        <v>5.0548690540000036</v>
+        <v>6.4922929500000013</v>
       </c>
       <c r="K12" s="4">
         <v>100</v>
       </c>
       <c r="L12" s="4">
-        <v>15.778605527999988</v>
+        <v>16.262845500000005</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="3"/>
-        <v>-13.535399062999986</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="4"/>
-        <v>-10.723736473999985</v>
+        <f>J12-L12</f>
+        <v>-9.7705525500000032</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="5"/>
+        <f>G12-K12</f>
         <v>0</v>
       </c>
       <c r="P12" s="8">
-        <f t="shared" si="6"/>
+        <f>I12-K12</f>
         <v>0</v>
       </c>
     </row>
@@ -13279,49 +13280,49 @@
         <v>5995</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C13)/(B13*(B13-1))</f>
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G13,I13,K13)</f>
         <v>110</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>2.8350060819999952</v>
+        <f>MIN(H13,J13,L13)</f>
+        <v>6.1175923499999998</v>
       </c>
       <c r="G13" s="4">
         <v>110</v>
       </c>
       <c r="H13" s="4">
-        <v>2.8350060819999952</v>
+        <v>20.160072150000001</v>
       </c>
       <c r="I13" s="4">
         <v>110</v>
       </c>
       <c r="J13" s="4">
-        <v>6.4892781789999985</v>
+        <v>6.1175923499999998</v>
       </c>
       <c r="K13" s="4">
         <v>110</v>
       </c>
       <c r="L13" s="4">
-        <v>22.08765454200001</v>
+        <v>20.160072150000001</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="3"/>
-        <v>-19.252648460000014</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="4"/>
-        <v>-15.598376363000011</v>
+        <f>J13-L13</f>
+        <v>-14.042479800000002</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="5"/>
+        <f>G13-K13</f>
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" si="6"/>
+        <f>I13-K13</f>
         <v>0</v>
       </c>
     </row>
@@ -13336,49 +13337,49 @@
         <v>7140</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C14)/(B14*(B14-1))</f>
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G14,I14,K14)</f>
         <v>120</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="2"/>
-        <v>3.5723478439999963</v>
+        <f>MIN(H14,J14,L14)</f>
+        <v>7.8875390500000009</v>
       </c>
       <c r="G14" s="4">
         <v>120</v>
       </c>
       <c r="H14" s="4">
-        <v>3.5723478439999963</v>
+        <v>29.897723150000001</v>
       </c>
       <c r="I14" s="4">
         <v>120</v>
       </c>
       <c r="J14" s="4">
-        <v>8.221170005999987</v>
+        <v>7.8875390500000009</v>
       </c>
       <c r="K14" s="4">
         <v>120</v>
       </c>
       <c r="L14" s="4">
-        <v>31.042607815000032</v>
+        <v>29.897723150000001</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="3"/>
-        <v>-27.470259971000036</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="4"/>
-        <v>-22.821437809000045</v>
+        <f>J14-L14</f>
+        <v>-22.0101841</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="5"/>
+        <f>G14-K14</f>
         <v>0</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" si="6"/>
+        <f>I14-K14</f>
         <v>0</v>
       </c>
     </row>
@@ -13393,49 +13394,49 @@
         <v>8385</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C15)/(B15*(B15-1))</f>
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G15,I15,K15)</f>
         <v>130</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="2"/>
-        <v>4.4327484339999979</v>
+        <f>MIN(H15,J15,L15)</f>
+        <v>9.6355512999999995</v>
       </c>
       <c r="G15" s="4">
         <v>130</v>
       </c>
       <c r="H15" s="4">
-        <v>4.4327484339999979</v>
+        <v>39.324583199999999</v>
       </c>
       <c r="I15" s="4">
         <v>130</v>
       </c>
       <c r="J15" s="4">
-        <v>10.245461786999988</v>
+        <v>9.6355512999999995</v>
       </c>
       <c r="K15" s="4">
         <v>130</v>
       </c>
       <c r="L15" s="4">
-        <v>43.080914070999953</v>
+        <v>39.324583199999999</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="3"/>
-        <v>-38.648165636999956</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="4"/>
-        <v>-32.835452283999963</v>
+        <f>J15-L15</f>
+        <v>-29.6890319</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="5"/>
+        <f>G15-K15</f>
         <v>0</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="6"/>
+        <f>I15-K15</f>
         <v>0</v>
       </c>
     </row>
@@ -13450,49 +13451,49 @@
         <v>9730</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C16)/(B16*(B16-1))</f>
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G16,I16,K16)</f>
         <v>140</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>5.3870653460000009</v>
+        <f>MIN(H16,J16,L16)</f>
+        <v>11.538065100000001</v>
       </c>
       <c r="G16" s="4">
         <v>140</v>
       </c>
       <c r="H16" s="4">
-        <v>5.3870653460000009</v>
+        <v>53.681955299999991</v>
       </c>
       <c r="I16" s="4">
         <v>140</v>
       </c>
       <c r="J16" s="4">
-        <v>12.513341605000019</v>
+        <v>11.538065100000001</v>
       </c>
       <c r="K16" s="4">
         <v>140</v>
       </c>
       <c r="L16" s="4">
-        <v>57.602698599000071</v>
+        <v>53.681955299999991</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="3"/>
-        <v>-52.215633253000071</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="4"/>
-        <v>-45.089356994000056</v>
+        <f>J16-L16</f>
+        <v>-42.143890199999987</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="5"/>
+        <f>G16-K16</f>
         <v>0</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="6"/>
+        <f>I16-K16</f>
         <v>0</v>
       </c>
     </row>
@@ -13507,49 +13508,49 @@
         <v>11175</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C17)/(B17*(B17-1))</f>
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G17,I17,K17)</f>
         <v>150</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>6.4714305719999965</v>
+        <f>MIN(H17,J17,L17)</f>
+        <v>13.548282400000002</v>
       </c>
       <c r="G17" s="4">
         <v>150</v>
       </c>
       <c r="H17" s="4">
-        <v>6.4714305719999965</v>
+        <v>70.122603550000008</v>
       </c>
       <c r="I17" s="4">
         <v>150</v>
       </c>
       <c r="J17" s="4">
-        <v>14.992525211000002</v>
+        <v>13.548282400000002</v>
       </c>
       <c r="K17" s="4">
         <v>150</v>
       </c>
       <c r="L17" s="4">
-        <v>75.579013146000094</v>
+        <v>70.122603550000008</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="3"/>
-        <v>-69.107582574000091</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="4"/>
-        <v>-60.586487935000093</v>
+        <f>J17-L17</f>
+        <v>-56.574321150000003</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="5"/>
+        <f>G17-K17</f>
         <v>0</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="6"/>
+        <f>I17-K17</f>
         <v>0</v>
       </c>
     </row>
@@ -13564,49 +13565,49 @@
         <v>12720</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C18)/(B18*(B18-1))</f>
         <v>1</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G18,I18,K18)</f>
         <v>160</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="2"/>
-        <v>7.8441587049999999</v>
+        <f>MIN(H18,J18,L18)</f>
+        <v>16.397876450000005</v>
       </c>
       <c r="G18" s="4">
         <v>160</v>
       </c>
       <c r="H18" s="4">
-        <v>7.8441587049999999</v>
+        <v>82.013450099999986</v>
       </c>
       <c r="I18" s="4">
         <v>160</v>
       </c>
       <c r="J18" s="4">
-        <v>17.877857257999977</v>
+        <v>16.397876450000005</v>
       </c>
       <c r="K18" s="4">
         <v>160</v>
       </c>
       <c r="L18" s="4">
-        <v>100.33456754699995</v>
+        <v>82.013450099999986</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="3"/>
-        <v>-92.490408841999951</v>
+        <f>H18-L18</f>
+        <v>0</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="4"/>
-        <v>-82.456710288999972</v>
+        <f>J18-L18</f>
+        <v>-65.615573649999988</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="5"/>
+        <f>G18-K18</f>
         <v>0</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="6"/>
+        <f>I18-K18</f>
         <v>0</v>
       </c>
     </row>
@@ -13621,49 +13622,49 @@
         <v>14365</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C19)/(B19*(B19-1))</f>
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G19,I19,K19)</f>
         <v>170</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="2"/>
-        <v>9.1413162989999961</v>
+        <f>MIN(H19,J19,L19)</f>
+        <v>17.689746</v>
       </c>
       <c r="G19" s="4">
         <v>170</v>
       </c>
       <c r="H19" s="4">
-        <v>9.1413162989999961</v>
+        <v>116.41177324999998</v>
       </c>
       <c r="I19" s="4">
         <v>170</v>
       </c>
       <c r="J19" s="4">
-        <v>20.702604450000013</v>
+        <v>17.689746</v>
       </c>
       <c r="K19" s="4">
         <v>170</v>
       </c>
       <c r="L19" s="4">
-        <v>128.90342060999996</v>
+        <v>116.41177324999998</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="3"/>
-        <v>-119.76210431099996</v>
+        <f t="shared" ref="M19:M21" si="1">H19-L19</f>
+        <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="4"/>
-        <v>-108.20081615999995</v>
+        <f>J19-L19</f>
+        <v>-98.722027249999982</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="5"/>
+        <f>G19-K19</f>
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="6"/>
+        <f>I19-K19</f>
         <v>0</v>
       </c>
     </row>
@@ -13678,49 +13679,49 @@
         <v>16110</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C20)/(B20*(B20-1))</f>
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G20,I20,K20)</f>
         <v>180</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="2"/>
-        <v>10.552199555</v>
+        <f>MIN(H20,J20,L20)</f>
+        <v>21.162964899999999</v>
       </c>
       <c r="G20" s="4">
         <v>180</v>
       </c>
       <c r="H20" s="4">
-        <v>10.552199555</v>
+        <v>159.96059939999998</v>
       </c>
       <c r="I20" s="4">
         <v>180</v>
       </c>
       <c r="J20" s="4">
-        <v>23.974074571000013</v>
+        <v>21.162964899999999</v>
       </c>
       <c r="K20" s="4">
         <v>180</v>
       </c>
       <c r="L20" s="4">
-        <v>164.25629852099982</v>
+        <v>159.96059939999998</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="3"/>
-        <v>-153.70409896599983</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="4"/>
-        <v>-140.2822239499998</v>
+        <f>J20-L20</f>
+        <v>-138.79763449999999</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="5"/>
+        <f>G20-K20</f>
         <v>0</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="6"/>
+        <f>I20-K20</f>
         <v>0</v>
       </c>
     </row>
@@ -13735,49 +13736,49 @@
         <v>17955</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C21)/(B21*(B21-1))</f>
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G21,I21,K21)</f>
         <v>190</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="2"/>
-        <v>12.057116283000003</v>
+        <f>MIN(H21,J21,L21)</f>
+        <v>24.120593000000003</v>
       </c>
       <c r="G21" s="4">
         <v>190</v>
       </c>
       <c r="H21" s="4">
-        <v>12.057116283000003</v>
+        <v>185.36308594999997</v>
       </c>
       <c r="I21" s="4">
         <v>190</v>
       </c>
       <c r="J21" s="4">
-        <v>27.737313222000019</v>
+        <v>24.120593000000003</v>
       </c>
       <c r="K21" s="4">
         <v>190</v>
       </c>
       <c r="L21" s="4">
-        <v>196.61924185200019</v>
+        <v>185.36308594999997</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="3"/>
-        <v>-184.56212556900019</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="4"/>
-        <v>-168.88192863000017</v>
+        <f>J21-L21</f>
+        <v>-161.24249294999996</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="5"/>
+        <f>G21-K21</f>
         <v>0</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="6"/>
+        <f>I21-K21</f>
         <v>0</v>
       </c>
       <c r="R21" s="13" t="s">
@@ -13795,49 +13796,49 @@
         <v>19900</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f>(2*C22)/(B22*(B22-1))</f>
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
+        <f>MIN(G22,I22,K22)</f>
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="2"/>
-        <v>13.312667812000003</v>
+        <f>MIN(H22,J22,L22)</f>
+        <v>28.853726200000001</v>
       </c>
       <c r="G22" s="4">
         <v>200</v>
       </c>
       <c r="H22" s="4">
-        <v>13.312667812000003</v>
+        <v>252.72969155000001</v>
       </c>
       <c r="I22" s="4">
         <v>200</v>
       </c>
       <c r="J22" s="4">
-        <v>31.578600913000017</v>
+        <v>28.853726200000001</v>
       </c>
       <c r="K22" s="4">
         <v>200</v>
       </c>
       <c r="L22" s="4">
-        <v>243.49175768200007</v>
+        <v>252.72969155000001</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="3"/>
-        <v>-230.17908987000007</v>
+        <f>H22-L22</f>
+        <v>0</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="4"/>
-        <v>-211.91315676900007</v>
+        <f>J22-L22</f>
+        <v>-223.87596535</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="5"/>
+        <f>G22-K22</f>
         <v>0</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="6"/>
+        <f>I22-K22</f>
         <v>0</v>
       </c>
     </row>
@@ -13868,15 +13869,15 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M25">
         <f>AVERAGE(M3:M22)</f>
-        <v>-50.467184311900013</v>
+        <v>-0.40008510749999998</v>
       </c>
       <c r="N25">
         <f>AVERAGE(N3:N22)</f>
-        <v>-45.3228260773</v>
+        <v>-43.468589429999994</v>
       </c>
       <c r="O25" s="8">
         <f>AVERAGE(O3:O22)</f>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P25" s="8">
         <f>AVERAGE(P3:P22)</f>
@@ -13886,12 +13887,12 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O26">
         <f>_xlfn.STDEV.S(O3:O22)</f>
-        <v>1.1876558069531229</v>
+        <v>1.190974832912761</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P22">
-    <sortCondition ref="D3:D22"/>
+    <sortCondition ref="B3:B22"/>
   </sortState>
   <mergeCells count="13">
     <mergeCell ref="F1:F2"/>

--- a/src/Benchmarks_2.xlsx
+++ b/src/Benchmarks_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelu.angelu-PC\Desktop\tanggg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C804B5-C9C4-4E02-A3A1-E41B5488BA2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF92257-4CEE-4FC4-BD00-81B91C22DEF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,6 +422,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,10 +439,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8682,52 +8682,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="14"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
@@ -9918,14 +9918,14 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="15"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M24" s="10" t="s">
@@ -11276,12 +11276,6 @@
     <sortCondition ref="D3:D22"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="M23:N23"/>
@@ -11289,6 +11283,12 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11312,52 +11312,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="14"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
@@ -12533,14 +12533,14 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="15"/>
+      <c r="P23" s="17"/>
       <c r="R23" s="13" t="s">
         <v>76</v>
       </c>
@@ -12582,11 +12582,6 @@
     <sortCondition ref="D3:D22"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="M23:N23"/>
@@ -12595,6 +12590,11 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12608,63 +12608,63 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.296875" customWidth="1" collapsed="1"/>
-    <col min="5" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="8.796875" customWidth="1"/>
     <col min="13" max="16" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="14"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
@@ -12707,15 +12707,15 @@
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <f>(2*C3)/(B3*(B3-1))</f>
+        <f t="shared" ref="D3:D22" si="0">(2*C3)/(B3*(B3-1))</f>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="E3" s="3">
-        <f>MIN(G3,I3,K3)</f>
+        <f t="shared" ref="E3:E22" si="1">MIN(G3,I3,K3)</f>
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <f>MIN(H3,J3,L3)</f>
+        <f t="shared" ref="F3:F22" si="2">MIN(H3,J3,L3)</f>
         <v>3.5064799999999993E-2</v>
       </c>
       <c r="G3" s="4">
@@ -12741,15 +12741,15 @@
         <v>2.3286600000000046E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>J3-L3</f>
+        <f t="shared" ref="N3:N22" si="3">J3-L3</f>
         <v>-0.10795859999999997</v>
       </c>
       <c r="O3" s="8">
-        <f>G3-K3</f>
+        <f t="shared" ref="O3:O22" si="4">G3-K3</f>
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f>I3-K3</f>
+        <f t="shared" ref="P3:P22" si="5">I3-K3</f>
         <v>0</v>
       </c>
     </row>
@@ -12764,15 +12764,15 @@
         <v>32</v>
       </c>
       <c r="D4" s="3">
-        <f>(2*C4)/(B4*(B4-1))</f>
+        <f t="shared" si="0"/>
         <v>0.16842105263157894</v>
       </c>
       <c r="E4" s="3">
-        <f>MIN(G4,I4,K4)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <f>MIN(H4,J4,L4)</f>
+        <f t="shared" si="2"/>
         <v>7.2112999999999995E-3</v>
       </c>
       <c r="G4" s="4">
@@ -12798,15 +12798,15 @@
         <v>-0.13415955000000002</v>
       </c>
       <c r="N4" s="8">
-        <f>J4-L4</f>
+        <f t="shared" si="3"/>
         <v>-0.15253320000000001</v>
       </c>
       <c r="O4" s="8">
-        <f>G4-K4</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f>I4-K4</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R4" s="13" t="s">
@@ -12824,15 +12824,15 @@
         <v>136</v>
       </c>
       <c r="D5" s="3">
-        <f>(2*C5)/(B5*(B5-1))</f>
+        <f t="shared" si="0"/>
         <v>0.31264367816091954</v>
       </c>
       <c r="E5" s="3">
-        <f>MIN(G5,I5,K5)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F5" s="3">
-        <f>MIN(H5,J5,L5)</f>
+        <f t="shared" si="2"/>
         <v>1.5744849999999998E-2</v>
       </c>
       <c r="G5" s="4">
@@ -12854,19 +12854,19 @@
         <v>2.8199099999999998E-2</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:M17" si="0">H5-L5</f>
+        <f t="shared" ref="M5:M17" si="6">H5-L5</f>
         <v>-6.6855499999999984E-3</v>
       </c>
       <c r="N5" s="8">
-        <f>J5-L5</f>
+        <f t="shared" si="3"/>
         <v>-1.245425E-2</v>
       </c>
       <c r="O5" s="8">
-        <f>G5-K5</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P5" s="8">
-        <f>I5-K5</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12881,15 +12881,15 @@
         <v>303</v>
       </c>
       <c r="D6" s="3">
-        <f>(2*C6)/(B6*(B6-1))</f>
+        <f t="shared" si="0"/>
         <v>0.38846153846153847</v>
       </c>
       <c r="E6" s="3">
-        <f>MIN(G6,I6,K6)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F6" s="3">
-        <f>MIN(H6,J6,L6)</f>
+        <f t="shared" si="2"/>
         <v>4.388355E-2</v>
       </c>
       <c r="G6" s="4">
@@ -12911,19 +12911,19 @@
         <v>6.92884E-2</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-2.540485E-2</v>
       </c>
       <c r="N6" s="8">
-        <f>J6-L6</f>
+        <f t="shared" si="3"/>
         <v>-1.8148449999999997E-2</v>
       </c>
       <c r="O6" s="8">
-        <f>G6-K6</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P6" s="8">
-        <f>I6-K6</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -12938,15 +12938,15 @@
         <v>640</v>
       </c>
       <c r="D7" s="3">
-        <f>(2*C7)/(B7*(B7-1))</f>
+        <f t="shared" si="0"/>
         <v>0.52244897959183678</v>
       </c>
       <c r="E7" s="3">
-        <f>MIN(G7,I7,K7)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F7" s="3">
-        <f>MIN(H7,J7,L7)</f>
+        <f t="shared" si="2"/>
         <v>8.4972699999999984E-2</v>
       </c>
       <c r="G7" s="4">
@@ -12968,19 +12968,19 @@
         <v>0.18145355000000002</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-9.6480850000000035E-2</v>
       </c>
       <c r="N7" s="8">
-        <f>J7-L7</f>
+        <f t="shared" si="3"/>
         <v>-6.9348350000000031E-2</v>
       </c>
       <c r="O7" s="8">
-        <f>G7-K7</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P7" s="8">
-        <f>I7-K7</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -12995,15 +12995,15 @@
         <v>1092</v>
       </c>
       <c r="D8" s="3">
-        <f>(2*C8)/(B8*(B8-1))</f>
+        <f t="shared" si="0"/>
         <v>0.61694915254237293</v>
       </c>
       <c r="E8" s="3">
-        <f>MIN(G8,I8,K8)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F8" s="3">
-        <f>MIN(H8,J8,L8)</f>
+        <f t="shared" si="2"/>
         <v>0.15717575</v>
       </c>
       <c r="G8" s="4">
@@ -13025,19 +13025,19 @@
         <v>0.43305180000000015</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-0.27587605000000015</v>
       </c>
       <c r="N8" s="8">
-        <f>J8-L8</f>
+        <f t="shared" si="3"/>
         <v>-0.19127875000000016</v>
       </c>
       <c r="O8" s="8">
-        <f>G8-K8</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P8" s="8">
-        <f>I8-K8</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -13052,15 +13052,15 @@
         <v>1692</v>
       </c>
       <c r="D9" s="3">
-        <f>(2*C9)/(B9*(B9-1))</f>
+        <f t="shared" si="0"/>
         <v>0.70062111801242233</v>
       </c>
       <c r="E9" s="3">
-        <f>MIN(G9,I9,K9)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F9" s="3">
-        <f>MIN(H9,J9,L9)</f>
+        <f t="shared" si="2"/>
         <v>0.28917205000000001</v>
       </c>
       <c r="G9" s="4">
@@ -13082,19 +13082,19 @@
         <v>1.1901153000000002</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-0.9009432500000002</v>
       </c>
       <c r="N9" s="8">
-        <f>J9-L9</f>
+        <f t="shared" si="3"/>
         <v>-0.7372924500000001</v>
       </c>
       <c r="O9" s="8">
-        <f>G9-K9</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P9" s="8">
-        <f>I9-K9</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -13109,15 +13109,15 @@
         <v>2536</v>
       </c>
       <c r="D10" s="3">
-        <f>(2*C10)/(B10*(B10-1))</f>
+        <f t="shared" si="0"/>
         <v>0.8025316455696202</v>
       </c>
       <c r="E10" s="3">
-        <f>MIN(G10,I10,K10)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="F10" s="3">
-        <f>MIN(H10,J10,L10)</f>
+        <f t="shared" si="2"/>
         <v>0.50358715000000009</v>
       </c>
       <c r="G10" s="4">
@@ -13139,19 +13139,19 @@
         <v>2.4668409499999995</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1.9632537999999995</v>
       </c>
       <c r="N10" s="8">
-        <f>J10-L10</f>
+        <f t="shared" si="3"/>
         <v>-1.5960347499999994</v>
       </c>
       <c r="O10" s="8">
-        <f>G10-K10</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P10" s="8">
-        <f>I10-K10</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -13166,15 +13166,15 @@
         <v>3588</v>
       </c>
       <c r="D11" s="3">
-        <f>(2*C11)/(B11*(B11-1))</f>
+        <f t="shared" si="0"/>
         <v>0.89588014981273412</v>
       </c>
       <c r="E11" s="3">
-        <f>MIN(G11,I11,K11)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="F11" s="3">
-        <f>MIN(H11,J11,L11)</f>
+        <f t="shared" si="2"/>
         <v>0.83949720000000005</v>
       </c>
       <c r="G11" s="4">
@@ -13196,19 +13196,19 @@
         <v>5.4616820500000003</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-4.62218485</v>
       </c>
       <c r="N11" s="8">
-        <f>J11-L11</f>
+        <f t="shared" si="3"/>
         <v>-4.0025864000000002</v>
       </c>
       <c r="O11" s="8">
-        <f>G11-K11</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="P11" s="8">
-        <f>I11-K11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13223,15 +13223,15 @@
         <v>4950</v>
       </c>
       <c r="D12" s="3">
-        <f>(2*C12)/(B12*(B12-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <f>MIN(G12,I12,K12)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <f>MIN(H12,J12,L12)</f>
+        <f t="shared" si="2"/>
         <v>6.4922929500000013</v>
       </c>
       <c r="G12" s="4">
@@ -13253,19 +13253,19 @@
         <v>16.262845500000005</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12" s="8">
-        <f>J12-L12</f>
+        <f t="shared" si="3"/>
         <v>-9.7705525500000032</v>
       </c>
       <c r="O12" s="8">
-        <f>G12-K12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="8">
-        <f>I12-K12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13280,15 +13280,15 @@
         <v>5995</v>
       </c>
       <c r="D13" s="3">
-        <f>(2*C13)/(B13*(B13-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <f>MIN(G13,I13,K13)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="F13" s="3">
-        <f>MIN(H13,J13,L13)</f>
+        <f t="shared" si="2"/>
         <v>6.1175923499999998</v>
       </c>
       <c r="G13" s="4">
@@ -13310,19 +13310,19 @@
         <v>20.160072150000001</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N13" s="8">
-        <f>J13-L13</f>
+        <f t="shared" si="3"/>
         <v>-14.042479800000002</v>
       </c>
       <c r="O13" s="8">
-        <f>G13-K13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f>I13-K13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13337,15 +13337,15 @@
         <v>7140</v>
       </c>
       <c r="D14" s="3">
-        <f>(2*C14)/(B14*(B14-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <f>MIN(G14,I14,K14)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="F14" s="3">
-        <f>MIN(H14,J14,L14)</f>
+        <f t="shared" si="2"/>
         <v>7.8875390500000009</v>
       </c>
       <c r="G14" s="4">
@@ -13367,19 +13367,19 @@
         <v>29.897723150000001</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N14" s="8">
-        <f>J14-L14</f>
+        <f t="shared" si="3"/>
         <v>-22.0101841</v>
       </c>
       <c r="O14" s="8">
-        <f>G14-K14</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14" s="8">
-        <f>I14-K14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13394,15 +13394,15 @@
         <v>8385</v>
       </c>
       <c r="D15" s="3">
-        <f>(2*C15)/(B15*(B15-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <f>MIN(G15,I15,K15)</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="F15" s="3">
-        <f>MIN(H15,J15,L15)</f>
+        <f t="shared" si="2"/>
         <v>9.6355512999999995</v>
       </c>
       <c r="G15" s="4">
@@ -13424,19 +13424,19 @@
         <v>39.324583199999999</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N15" s="8">
-        <f>J15-L15</f>
+        <f t="shared" si="3"/>
         <v>-29.6890319</v>
       </c>
       <c r="O15" s="8">
-        <f>G15-K15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="8">
-        <f>I15-K15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13451,15 +13451,15 @@
         <v>9730</v>
       </c>
       <c r="D16" s="3">
-        <f>(2*C16)/(B16*(B16-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <f>MIN(G16,I16,K16)</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="F16" s="3">
-        <f>MIN(H16,J16,L16)</f>
+        <f t="shared" si="2"/>
         <v>11.538065100000001</v>
       </c>
       <c r="G16" s="4">
@@ -13481,19 +13481,19 @@
         <v>53.681955299999991</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N16" s="8">
-        <f>J16-L16</f>
+        <f t="shared" si="3"/>
         <v>-42.143890199999987</v>
       </c>
       <c r="O16" s="8">
-        <f>G16-K16</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="8">
-        <f>I16-K16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13508,15 +13508,15 @@
         <v>11175</v>
       </c>
       <c r="D17" s="3">
-        <f>(2*C17)/(B17*(B17-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <f>MIN(G17,I17,K17)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="F17" s="3">
-        <f>MIN(H17,J17,L17)</f>
+        <f t="shared" si="2"/>
         <v>13.548282400000002</v>
       </c>
       <c r="G17" s="4">
@@ -13538,19 +13538,19 @@
         <v>70.122603550000008</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N17" s="8">
-        <f>J17-L17</f>
+        <f t="shared" si="3"/>
         <v>-56.574321150000003</v>
       </c>
       <c r="O17" s="8">
-        <f>G17-K17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="8">
-        <f>I17-K17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13565,15 +13565,15 @@
         <v>12720</v>
       </c>
       <c r="D18" s="3">
-        <f>(2*C18)/(B18*(B18-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="3">
-        <f>MIN(G18,I18,K18)</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="F18" s="3">
-        <f>MIN(H18,J18,L18)</f>
+        <f t="shared" si="2"/>
         <v>16.397876450000005</v>
       </c>
       <c r="G18" s="4">
@@ -13599,15 +13599,15 @@
         <v>0</v>
       </c>
       <c r="N18" s="8">
-        <f>J18-L18</f>
+        <f t="shared" si="3"/>
         <v>-65.615573649999988</v>
       </c>
       <c r="O18" s="8">
-        <f>G18-K18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18" s="8">
-        <f>I18-K18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13622,15 +13622,15 @@
         <v>14365</v>
       </c>
       <c r="D19" s="3">
-        <f>(2*C19)/(B19*(B19-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <f>MIN(G19,I19,K19)</f>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="F19" s="3">
-        <f>MIN(H19,J19,L19)</f>
+        <f t="shared" si="2"/>
         <v>17.689746</v>
       </c>
       <c r="G19" s="4">
@@ -13652,19 +13652,19 @@
         <v>116.41177324999998</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" ref="M19:M21" si="1">H19-L19</f>
+        <f t="shared" ref="M19:M21" si="7">H19-L19</f>
         <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f>J19-L19</f>
+        <f t="shared" si="3"/>
         <v>-98.722027249999982</v>
       </c>
       <c r="O19" s="8">
-        <f>G19-K19</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f>I19-K19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13679,15 +13679,15 @@
         <v>16110</v>
       </c>
       <c r="D20" s="3">
-        <f>(2*C20)/(B20*(B20-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <f>MIN(G20,I20,K20)</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="F20" s="3">
-        <f>MIN(H20,J20,L20)</f>
+        <f t="shared" si="2"/>
         <v>21.162964899999999</v>
       </c>
       <c r="G20" s="4">
@@ -13709,19 +13709,19 @@
         <v>159.96059939999998</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N20" s="8">
-        <f>J20-L20</f>
+        <f t="shared" si="3"/>
         <v>-138.79763449999999</v>
       </c>
       <c r="O20" s="8">
-        <f>G20-K20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="8">
-        <f>I20-K20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13736,15 +13736,15 @@
         <v>17955</v>
       </c>
       <c r="D21" s="3">
-        <f>(2*C21)/(B21*(B21-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <f>MIN(G21,I21,K21)</f>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="F21" s="3">
-        <f>MIN(H21,J21,L21)</f>
+        <f t="shared" si="2"/>
         <v>24.120593000000003</v>
       </c>
       <c r="G21" s="4">
@@ -13766,19 +13766,19 @@
         <v>185.36308594999997</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N21" s="8">
-        <f>J21-L21</f>
+        <f t="shared" si="3"/>
         <v>-161.24249294999996</v>
       </c>
       <c r="O21" s="8">
-        <f>G21-K21</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="8">
-        <f>I21-K21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R21" s="13" t="s">
@@ -13796,15 +13796,15 @@
         <v>19900</v>
       </c>
       <c r="D22" s="3">
-        <f>(2*C22)/(B22*(B22-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <f>MIN(G22,I22,K22)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <f>MIN(H22,J22,L22)</f>
+        <f t="shared" si="2"/>
         <v>28.853726200000001</v>
       </c>
       <c r="G22" s="4">
@@ -13830,27 +13830,27 @@
         <v>0</v>
       </c>
       <c r="N22" s="8">
-        <f>J22-L22</f>
+        <f t="shared" si="3"/>
         <v>-223.87596535</v>
       </c>
       <c r="O22" s="8">
-        <f>G22-K22</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="8">
-        <f>I22-K22</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="15"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M24" s="10" t="s">
@@ -13895,6 +13895,12 @@
     <sortCondition ref="B3:B22"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
@@ -13902,12 +13908,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
